--- a/1Tests.xlsx
+++ b/1Tests.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ufpeledubr-my.sharepoint.com/personal/zandra_cunha_ufpel_edu_br/Documents/Artigos/5. Artigos IDF/Nota tecnica/Testes_revisado/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="170" documentId="13_ncr:1_{1C15DC63-9A6B-4369-913B-83781D3D7F98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{EA688B8C-1BF1-480A-8367-B0B8E61EDE47}"/>
+  <xr:revisionPtr revIDLastSave="180" documentId="13_ncr:1_{1C15DC63-9A6B-4369-913B-83781D3D7F98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8B1E8898-D5B9-44DF-8E32-75D3A718C207}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2D2F67AC-4D7C-4C6A-BC0B-6ADCE88EEFE1}"/>
   </bookViews>
@@ -271,18 +271,6 @@
     <t>SC</t>
   </si>
   <si>
-    <t>Return period: 5, 10, 20, 50, 100, 500 years.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Return period: 2, 5, 10, 20, 25, 50, 100 years. </t>
-  </si>
-  <si>
-    <t>Return period: 2, 5, 10, 25, 50, 100 years.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Return period: 10, 50 e 100 years. </t>
-  </si>
-  <si>
     <t>Return period: 10, 50 and 100 years.</t>
   </si>
   <si>
@@ -295,17 +283,29 @@
     <t>MS</t>
   </si>
   <si>
-    <t xml:space="preserve">Return period: 2,  5,  10,  25,  50,  100 years. </t>
-  </si>
-  <si>
     <t>SP</t>
-  </si>
-  <si>
-    <t>Return period:  2,  5,  10, 15, 20,  25,  50,  100 years.</t>
   </si>
   <si>
     <t xml:space="preserve">Adapted from Occhipinti;Santos
 (1966) e Mello; Silva (2013). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return period: 10, 50 and 100 years. </t>
+  </si>
+  <si>
+    <t>Return period: 2, 5, 10, 25, 50 and 100 years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return period: 2, 5, 10, 20, 25, 50 and 100 years. </t>
+  </si>
+  <si>
+    <t>Return period: 5, 10, 20, 50, 100 and 500 years.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return period: 2,  5,  10,  25,  50 and  100 years. </t>
+  </si>
+  <si>
+    <t>Return period:  2,  5,  10, 15, 20,  25,  50 and  100 years.</t>
   </si>
 </sst>
 </file>
@@ -606,6 +606,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -621,41 +645,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -973,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49DD887D-1075-4EB5-839E-7875F91F452F}">
   <dimension ref="B1:AI49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AG24" sqref="AG24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1009,45 +1009,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="46"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="2"/>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="45"/>
-      <c r="J1" s="46"/>
-      <c r="M1" s="44" t="s">
+      <c r="I1" s="36"/>
+      <c r="J1" s="37"/>
+      <c r="M1" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="N1" s="45"/>
-      <c r="O1" s="46"/>
-      <c r="R1" s="44" t="s">
+      <c r="N1" s="36"/>
+      <c r="O1" s="37"/>
+      <c r="R1" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="S1" s="45"/>
-      <c r="T1" s="46"/>
-      <c r="W1" s="44" t="s">
+      <c r="S1" s="36"/>
+      <c r="T1" s="37"/>
+      <c r="W1" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="46"/>
-      <c r="AB1" s="44" t="s">
+      <c r="X1" s="36"/>
+      <c r="Y1" s="37"/>
+      <c r="AB1" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" s="45"/>
-      <c r="AD1" s="46"/>
-      <c r="AG1" s="44" t="s">
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="37"/>
+      <c r="AG1" s="35" t="s">
         <v>66</v>
       </c>
-      <c r="AH1" s="45"/>
-      <c r="AI1" s="46"/>
+      <c r="AH1" s="36"/>
+      <c r="AI1" s="37"/>
     </row>
     <row r="2" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="32" t="s">
         <v>73</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -1060,7 +1060,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="41" t="s">
+      <c r="G2" s="32" t="s">
         <v>73</v>
       </c>
       <c r="H2" s="13" t="s">
@@ -1069,10 +1069,10 @@
       <c r="I2" s="14">
         <v>1.1399999999999999</v>
       </c>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="41" t="s">
+      <c r="L2" s="32" t="s">
         <v>73</v>
       </c>
       <c r="M2" s="13" t="s">
@@ -1082,7 +1082,7 @@
         <v>1.1599999999999999</v>
       </c>
       <c r="O2" s="20"/>
-      <c r="Q2" s="41" t="s">
+      <c r="Q2" s="32" t="s">
         <v>73</v>
       </c>
       <c r="R2" s="13" t="s">
@@ -1091,10 +1091,10 @@
       <c r="S2" s="22">
         <v>1.1399999999999999</v>
       </c>
-      <c r="T2" s="37" t="s">
-        <v>92</v>
-      </c>
-      <c r="V2" s="41" t="s">
+      <c r="T2" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="V2" s="32" t="s">
         <v>73</v>
       </c>
       <c r="W2" s="13" t="s">
@@ -1103,10 +1103,10 @@
       <c r="X2" s="22">
         <v>0.97</v>
       </c>
-      <c r="Y2" s="37" t="s">
+      <c r="Y2" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="AA2" s="41" t="s">
+      <c r="AA2" s="32" t="s">
         <v>73</v>
       </c>
       <c r="AB2" s="1" t="s">
@@ -1115,10 +1115,10 @@
       <c r="AC2" s="2">
         <v>0.93600000000000005</v>
       </c>
-      <c r="AD2" s="37" t="s">
+      <c r="AD2" s="38" t="s">
         <v>65</v>
       </c>
-      <c r="AF2" s="41" t="s">
+      <c r="AF2" s="32" t="s">
         <v>73</v>
       </c>
       <c r="AG2" s="1" t="s">
@@ -1130,26 +1130,26 @@
       <c r="AI2" s="3"/>
     </row>
     <row r="3" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B3" s="42"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="2">
         <v>0.93</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="38" t="s">
         <v>27</v>
       </c>
       <c r="F3" s="19"/>
-      <c r="G3" s="42"/>
+      <c r="G3" s="33"/>
       <c r="H3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="14">
         <v>0.85</v>
       </c>
-      <c r="J3" s="37"/>
-      <c r="L3" s="42"/>
+      <c r="J3" s="38"/>
+      <c r="L3" s="33"/>
       <c r="M3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1157,31 +1157,31 @@
         <v>0.97</v>
       </c>
       <c r="O3" s="20"/>
-      <c r="Q3" s="48"/>
+      <c r="Q3" s="47"/>
       <c r="R3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="S3" s="22">
         <v>0.85</v>
       </c>
-      <c r="T3" s="37"/>
-      <c r="V3" s="42"/>
+      <c r="T3" s="38"/>
+      <c r="V3" s="33"/>
       <c r="W3" s="13" t="s">
         <v>2</v>
       </c>
       <c r="X3" s="22">
         <v>0.93</v>
       </c>
-      <c r="Y3" s="37"/>
-      <c r="AA3" s="42"/>
+      <c r="Y3" s="38"/>
+      <c r="AA3" s="33"/>
       <c r="AB3" s="1" t="s">
         <v>56</v>
       </c>
       <c r="AC3" s="2">
         <v>0.85599999999999998</v>
       </c>
-      <c r="AD3" s="37"/>
-      <c r="AF3" s="42"/>
+      <c r="AD3" s="38"/>
+      <c r="AF3" s="33"/>
       <c r="AG3" s="1" t="s">
         <v>31</v>
       </c>
@@ -1191,24 +1191,24 @@
       <c r="AI3" s="3"/>
     </row>
     <row r="4" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B4" s="42"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="2">
         <v>0.61</v>
       </c>
-      <c r="E4" s="47"/>
+      <c r="E4" s="48"/>
       <c r="F4" s="14"/>
-      <c r="G4" s="42"/>
+      <c r="G4" s="33"/>
       <c r="H4" s="13" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="14">
         <v>0.82</v>
       </c>
-      <c r="J4" s="37"/>
-      <c r="L4" s="42"/>
+      <c r="J4" s="38"/>
+      <c r="L4" s="33"/>
       <c r="M4" s="1" t="s">
         <v>30</v>
       </c>
@@ -1216,31 +1216,31 @@
         <v>0.93</v>
       </c>
       <c r="O4" s="20"/>
-      <c r="Q4" s="48"/>
+      <c r="Q4" s="47"/>
       <c r="R4" s="13" t="s">
         <v>16</v>
       </c>
       <c r="S4" s="22">
         <v>0.82</v>
       </c>
-      <c r="T4" s="37"/>
-      <c r="V4" s="42"/>
+      <c r="T4" s="38"/>
+      <c r="V4" s="33"/>
       <c r="W4" s="13" t="s">
         <v>18</v>
       </c>
       <c r="X4" s="22">
         <v>0.85</v>
       </c>
-      <c r="Y4" s="37"/>
-      <c r="AA4" s="42"/>
+      <c r="Y4" s="38"/>
+      <c r="AA4" s="33"/>
       <c r="AB4" s="1" t="s">
         <v>57</v>
       </c>
       <c r="AC4" s="2">
         <v>0.77800000000000002</v>
       </c>
-      <c r="AD4" s="37"/>
-      <c r="AF4" s="42"/>
+      <c r="AD4" s="38"/>
+      <c r="AF4" s="33"/>
       <c r="AG4" s="1" t="s">
         <v>56</v>
       </c>
@@ -1250,24 +1250,24 @@
       <c r="AI4" s="3"/>
     </row>
     <row r="5" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B5" s="42"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="2">
         <v>0.68</v>
       </c>
-      <c r="E5" s="47"/>
+      <c r="E5" s="48"/>
       <c r="F5" s="14"/>
-      <c r="G5" s="42"/>
+      <c r="G5" s="33"/>
       <c r="H5" s="13" t="s">
         <v>17</v>
       </c>
       <c r="I5" s="14">
         <v>0.78</v>
       </c>
-      <c r="J5" s="37"/>
-      <c r="L5" s="42"/>
+      <c r="J5" s="38"/>
+      <c r="L5" s="33"/>
       <c r="M5" s="1" t="s">
         <v>31</v>
       </c>
@@ -1275,31 +1275,31 @@
         <v>0.89</v>
       </c>
       <c r="O5" s="20"/>
-      <c r="Q5" s="48"/>
+      <c r="Q5" s="47"/>
       <c r="R5" s="13" t="s">
         <v>17</v>
       </c>
       <c r="S5" s="22">
         <v>0.78</v>
       </c>
-      <c r="T5" s="37"/>
-      <c r="V5" s="42"/>
+      <c r="T5" s="38"/>
+      <c r="V5" s="33"/>
       <c r="W5" s="13" t="s">
         <v>3</v>
       </c>
       <c r="X5" s="22">
         <v>0.48</v>
       </c>
-      <c r="Y5" s="37"/>
-      <c r="AA5" s="42"/>
+      <c r="Y5" s="38"/>
+      <c r="AA5" s="33"/>
       <c r="AB5" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AC5" s="2">
         <v>0.72399999999999998</v>
       </c>
-      <c r="AD5" s="37"/>
-      <c r="AF5" s="42"/>
+      <c r="AD5" s="38"/>
+      <c r="AF5" s="33"/>
       <c r="AG5" s="1" t="s">
         <v>58</v>
       </c>
@@ -1309,24 +1309,24 @@
       <c r="AI5" s="3"/>
     </row>
     <row r="6" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B6" s="42"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="2">
         <v>0.46</v>
       </c>
-      <c r="E6" s="47"/>
+      <c r="E6" s="48"/>
       <c r="F6" s="14"/>
-      <c r="G6" s="42"/>
+      <c r="G6" s="33"/>
       <c r="H6" s="13" t="s">
         <v>18</v>
       </c>
       <c r="I6" s="14">
         <v>0.72</v>
       </c>
-      <c r="J6" s="37"/>
-      <c r="L6" s="42"/>
+      <c r="J6" s="38"/>
+      <c r="L6" s="33"/>
       <c r="M6" s="1" t="s">
         <v>32</v>
       </c>
@@ -1334,31 +1334,31 @@
         <v>0.85</v>
       </c>
       <c r="O6" s="20"/>
-      <c r="Q6" s="48"/>
+      <c r="Q6" s="47"/>
       <c r="R6" s="13" t="s">
         <v>18</v>
       </c>
       <c r="S6" s="22">
         <v>0.72</v>
       </c>
-      <c r="T6" s="37"/>
-      <c r="V6" s="42"/>
+      <c r="T6" s="38"/>
+      <c r="V6" s="33"/>
       <c r="W6" s="15" t="s">
         <v>46</v>
       </c>
       <c r="X6" s="22">
         <v>0.69</v>
       </c>
-      <c r="Y6" s="37"/>
-      <c r="AA6" s="42"/>
+      <c r="Y6" s="38"/>
+      <c r="AA6" s="33"/>
       <c r="AB6" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AC6" s="2">
         <v>0.65100000000000002</v>
       </c>
-      <c r="AD6" s="37"/>
-      <c r="AF6" s="42"/>
+      <c r="AD6" s="38"/>
+      <c r="AF6" s="33"/>
       <c r="AG6" s="1" t="s">
         <v>68</v>
       </c>
@@ -1368,7 +1368,7 @@
       <c r="AI6" s="3"/>
     </row>
     <row r="7" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B7" s="42"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="10" t="s">
         <v>75</v>
       </c>
@@ -1379,15 +1379,15 @@
         <v>76</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="42"/>
+      <c r="G7" s="33"/>
       <c r="H7" s="15" t="s">
         <v>19</v>
       </c>
       <c r="I7" s="14">
         <v>0.54</v>
       </c>
-      <c r="J7" s="37"/>
-      <c r="L7" s="42"/>
+      <c r="J7" s="38"/>
+      <c r="L7" s="33"/>
       <c r="M7" s="1" t="s">
         <v>33</v>
       </c>
@@ -1395,31 +1395,31 @@
         <v>0.81</v>
       </c>
       <c r="O7" s="20"/>
-      <c r="Q7" s="48"/>
+      <c r="Q7" s="47"/>
       <c r="R7" s="13" t="s">
         <v>3</v>
       </c>
       <c r="S7" s="22">
         <v>0.42</v>
       </c>
-      <c r="T7" s="37"/>
-      <c r="V7" s="42"/>
+      <c r="T7" s="38"/>
+      <c r="V7" s="33"/>
       <c r="W7" s="16" t="s">
         <v>23</v>
       </c>
       <c r="X7" s="23">
         <v>0.7</v>
       </c>
-      <c r="Y7" s="40"/>
-      <c r="AA7" s="42"/>
+      <c r="Y7" s="39"/>
+      <c r="AA7" s="33"/>
       <c r="AB7" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AC7" s="2">
         <v>0.53100000000000003</v>
       </c>
-      <c r="AD7" s="37"/>
-      <c r="AF7" s="42"/>
+      <c r="AD7" s="38"/>
+      <c r="AF7" s="33"/>
       <c r="AG7" s="1" t="s">
         <v>59</v>
       </c>
@@ -1429,22 +1429,22 @@
       <c r="AI7" s="3"/>
     </row>
     <row r="8" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="42"/>
-      <c r="C8" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="34"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D8" s="41"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="19"/>
-      <c r="G8" s="42"/>
+      <c r="G8" s="33"/>
       <c r="H8" s="13" t="s">
         <v>20</v>
       </c>
       <c r="I8" s="14">
         <v>0.48</v>
       </c>
-      <c r="J8" s="37"/>
-      <c r="L8" s="42"/>
+      <c r="J8" s="38"/>
+      <c r="L8" s="33"/>
       <c r="M8" s="13" t="s">
         <v>2</v>
       </c>
@@ -1452,15 +1452,15 @@
         <v>0.76</v>
       </c>
       <c r="O8" s="20"/>
-      <c r="Q8" s="48"/>
+      <c r="Q8" s="47"/>
       <c r="R8" s="15" t="s">
         <v>46</v>
       </c>
       <c r="S8" s="22">
         <v>0.74</v>
       </c>
-      <c r="T8" s="37"/>
-      <c r="V8" s="42"/>
+      <c r="T8" s="38"/>
+      <c r="V8" s="33"/>
       <c r="W8" s="10" t="s">
         <v>75</v>
       </c>
@@ -1468,17 +1468,17 @@
         <v>54</v>
       </c>
       <c r="Y8" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA8" s="42"/>
+        <v>83</v>
+      </c>
+      <c r="AA8" s="33"/>
       <c r="AB8" s="8" t="s">
         <v>60</v>
       </c>
       <c r="AC8" s="2">
         <v>0.42</v>
       </c>
-      <c r="AD8" s="37"/>
-      <c r="AF8" s="42"/>
+      <c r="AD8" s="38"/>
+      <c r="AF8" s="33"/>
       <c r="AG8" s="1" t="s">
         <v>60</v>
       </c>
@@ -1488,20 +1488,20 @@
       <c r="AI8" s="3"/>
     </row>
     <row r="9" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="42"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="37"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="38"/>
       <c r="F9" s="19"/>
-      <c r="G9" s="42"/>
+      <c r="G9" s="33"/>
       <c r="H9" s="13" t="s">
         <v>3</v>
       </c>
       <c r="I9" s="14">
         <v>0.42</v>
       </c>
-      <c r="J9" s="37"/>
-      <c r="L9" s="42"/>
+      <c r="J9" s="38"/>
+      <c r="L9" s="33"/>
       <c r="M9" s="13" t="s">
         <v>16</v>
       </c>
@@ -1509,29 +1509,29 @@
         <v>0.71</v>
       </c>
       <c r="O9" s="20"/>
-      <c r="Q9" s="48"/>
+      <c r="Q9" s="47"/>
       <c r="R9" s="15" t="s">
         <v>47</v>
       </c>
       <c r="S9" s="22">
         <v>0.91</v>
       </c>
-      <c r="T9" s="37"/>
-      <c r="V9" s="42"/>
-      <c r="W9" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="34"/>
-      <c r="AA9" s="42"/>
+      <c r="T9" s="38"/>
+      <c r="V9" s="33"/>
+      <c r="W9" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="X9" s="41"/>
+      <c r="Y9" s="42"/>
+      <c r="AA9" s="33"/>
       <c r="AB9" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AC9" s="2">
         <v>0.318</v>
       </c>
-      <c r="AD9" s="37"/>
-      <c r="AF9" s="42"/>
+      <c r="AD9" s="38"/>
+      <c r="AF9" s="33"/>
       <c r="AG9" s="1" t="s">
         <v>46</v>
       </c>
@@ -1541,20 +1541,20 @@
       <c r="AI9" s="3"/>
     </row>
     <row r="10" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B10" s="42"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="37"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="38"/>
       <c r="F10" s="19"/>
-      <c r="G10" s="42"/>
+      <c r="G10" s="33"/>
       <c r="H10" s="13" t="s">
         <v>4</v>
       </c>
       <c r="I10" s="14">
         <v>0.74</v>
       </c>
-      <c r="J10" s="37"/>
-      <c r="L10" s="42"/>
+      <c r="J10" s="38"/>
+      <c r="L10" s="33"/>
       <c r="M10" s="13" t="s">
         <v>17</v>
       </c>
@@ -1562,27 +1562,27 @@
         <v>0.66</v>
       </c>
       <c r="O10" s="20"/>
-      <c r="Q10" s="48"/>
+      <c r="Q10" s="47"/>
       <c r="R10" s="15" t="s">
         <v>22</v>
       </c>
       <c r="S10" s="22">
         <v>0.81</v>
       </c>
-      <c r="T10" s="37"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="37"/>
-      <c r="AA10" s="42"/>
+      <c r="T10" s="38"/>
+      <c r="V10" s="33"/>
+      <c r="W10" s="43"/>
+      <c r="X10" s="44"/>
+      <c r="Y10" s="38"/>
+      <c r="AA10" s="33"/>
       <c r="AB10" s="1" t="s">
         <v>62</v>
       </c>
       <c r="AC10" s="2">
         <v>0.22600000000000001</v>
       </c>
-      <c r="AD10" s="37"/>
-      <c r="AF10" s="42"/>
+      <c r="AD10" s="38"/>
+      <c r="AF10" s="33"/>
       <c r="AG10" s="1" t="s">
         <v>22</v>
       </c>
@@ -1592,20 +1592,20 @@
       <c r="AI10" s="3"/>
     </row>
     <row r="11" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B11" s="42"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="40"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="39"/>
       <c r="F11" s="19"/>
-      <c r="G11" s="42"/>
+      <c r="G11" s="33"/>
       <c r="H11" s="13" t="s">
         <v>21</v>
       </c>
       <c r="I11" s="14">
         <v>0.91</v>
       </c>
-      <c r="J11" s="37"/>
-      <c r="L11" s="42"/>
+      <c r="J11" s="38"/>
+      <c r="L11" s="33"/>
       <c r="M11" s="15" t="s">
         <v>34</v>
       </c>
@@ -1613,27 +1613,27 @@
         <v>0.64</v>
       </c>
       <c r="O11" s="20"/>
-      <c r="Q11" s="48"/>
+      <c r="Q11" s="47"/>
       <c r="R11" s="13" t="s">
         <v>23</v>
       </c>
       <c r="S11" s="22">
         <v>0.7</v>
       </c>
-      <c r="T11" s="37"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="38"/>
-      <c r="X11" s="39"/>
-      <c r="Y11" s="40"/>
-      <c r="AA11" s="42"/>
+      <c r="T11" s="38"/>
+      <c r="V11" s="33"/>
+      <c r="W11" s="45"/>
+      <c r="X11" s="46"/>
+      <c r="Y11" s="39"/>
+      <c r="AA11" s="33"/>
       <c r="AB11" s="1" t="s">
         <v>63</v>
       </c>
       <c r="AC11" s="2">
         <v>0.17699999999999999</v>
       </c>
-      <c r="AD11" s="37"/>
-      <c r="AF11" s="42"/>
+      <c r="AD11" s="38"/>
+      <c r="AF11" s="33"/>
       <c r="AG11" s="25" t="s">
         <v>69</v>
       </c>
@@ -1643,7 +1643,7 @@
       <c r="AI11" s="5"/>
     </row>
     <row r="12" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B12" s="42"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="31" t="s">
         <v>77</v>
       </c>
@@ -1654,15 +1654,15 @@
         <v>78</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="42"/>
+      <c r="G12" s="33"/>
       <c r="H12" s="15" t="s">
         <v>22</v>
       </c>
       <c r="I12" s="14">
         <v>0.81</v>
       </c>
-      <c r="J12" s="37"/>
-      <c r="L12" s="42"/>
+      <c r="J12" s="38"/>
+      <c r="L12" s="33"/>
       <c r="M12" s="13" t="s">
         <v>18</v>
       </c>
@@ -1670,15 +1670,15 @@
         <v>0.61</v>
       </c>
       <c r="O12" s="20"/>
-      <c r="Q12" s="48"/>
+      <c r="Q12" s="47"/>
       <c r="R12" s="15" t="s">
         <v>5</v>
       </c>
       <c r="S12" s="22">
         <v>0.54</v>
       </c>
-      <c r="T12" s="37"/>
-      <c r="V12" s="42"/>
+      <c r="T12" s="38"/>
+      <c r="V12" s="33"/>
       <c r="W12" s="31" t="s">
         <v>77</v>
       </c>
@@ -1688,15 +1688,15 @@
       <c r="Y12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AA12" s="42"/>
+      <c r="AA12" s="33"/>
       <c r="AB12" s="9" t="s">
         <v>64</v>
       </c>
       <c r="AC12" s="4">
         <v>0.104</v>
       </c>
-      <c r="AD12" s="40"/>
-      <c r="AF12" s="42"/>
+      <c r="AD12" s="39"/>
+      <c r="AF12" s="33"/>
       <c r="AG12" s="10" t="s">
         <v>75</v>
       </c>
@@ -1704,11 +1704,11 @@
         <v>70</v>
       </c>
       <c r="AI12" s="12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="42"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="8" t="s">
         <v>9</v>
       </c>
@@ -1719,15 +1719,15 @@
         <v>13</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="42"/>
+      <c r="G13" s="33"/>
       <c r="H13" s="13" t="s">
         <v>23</v>
       </c>
       <c r="I13" s="14">
         <v>0.7</v>
       </c>
-      <c r="J13" s="37"/>
-      <c r="L13" s="42"/>
+      <c r="J13" s="38"/>
+      <c r="L13" s="33"/>
       <c r="M13" s="15" t="s">
         <v>35</v>
       </c>
@@ -1735,15 +1735,15 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="O13" s="20"/>
-      <c r="Q13" s="48"/>
+      <c r="Q13" s="47"/>
       <c r="R13" s="16" t="s">
         <v>24</v>
       </c>
       <c r="S13" s="23">
         <v>0.34</v>
       </c>
-      <c r="T13" s="40"/>
-      <c r="V13" s="42"/>
+      <c r="T13" s="39"/>
+      <c r="V13" s="33"/>
       <c r="W13" s="8" t="s">
         <v>9</v>
       </c>
@@ -1753,7 +1753,7 @@
       <c r="Y13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AA13" s="42"/>
+      <c r="AA13" s="33"/>
       <c r="AB13" s="10" t="s">
         <v>75</v>
       </c>
@@ -1761,17 +1761,17 @@
         <v>71</v>
       </c>
       <c r="AD13" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="AF13" s="42"/>
-      <c r="AG13" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH13" s="33"/>
-      <c r="AI13" s="34"/>
+        <v>84</v>
+      </c>
+      <c r="AF13" s="33"/>
+      <c r="AG13" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH13" s="41"/>
+      <c r="AI13" s="42"/>
     </row>
     <row r="14" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="42"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="8" t="s">
         <v>10</v>
       </c>
@@ -1782,15 +1782,15 @@
         <v>0.98080000000000001</v>
       </c>
       <c r="F14" s="2"/>
-      <c r="G14" s="42"/>
+      <c r="G14" s="33"/>
       <c r="H14" s="15" t="s">
         <v>5</v>
       </c>
       <c r="I14" s="14">
         <v>0.54</v>
       </c>
-      <c r="J14" s="37"/>
-      <c r="L14" s="42"/>
+      <c r="J14" s="38"/>
+      <c r="L14" s="33"/>
       <c r="M14" s="15" t="s">
         <v>36</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="O14" s="20"/>
-      <c r="Q14" s="48"/>
+      <c r="Q14" s="47"/>
       <c r="R14" s="10" t="s">
         <v>75</v>
       </c>
@@ -1806,9 +1806,9 @@
         <v>50</v>
       </c>
       <c r="T14" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="V14" s="42"/>
+        <v>82</v>
+      </c>
+      <c r="V14" s="33"/>
       <c r="W14" s="8" t="s">
         <v>10</v>
       </c>
@@ -1818,19 +1818,19 @@
       <c r="Y14" s="3">
         <v>0.999</v>
       </c>
-      <c r="AA14" s="42"/>
-      <c r="AB14" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC14" s="33"/>
-      <c r="AD14" s="34"/>
-      <c r="AF14" s="42"/>
-      <c r="AG14" s="35"/>
-      <c r="AH14" s="36"/>
-      <c r="AI14" s="37"/>
+      <c r="AA14" s="33"/>
+      <c r="AB14" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC14" s="41"/>
+      <c r="AD14" s="42"/>
+      <c r="AF14" s="33"/>
+      <c r="AG14" s="43"/>
+      <c r="AH14" s="44"/>
+      <c r="AI14" s="38"/>
     </row>
     <row r="15" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="42"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="8" t="s">
         <v>11</v>
       </c>
@@ -1841,15 +1841,15 @@
         <v>14</v>
       </c>
       <c r="F15" s="2"/>
-      <c r="G15" s="42"/>
+      <c r="G15" s="33"/>
       <c r="H15" s="16" t="s">
         <v>24</v>
       </c>
       <c r="I15" s="17">
         <v>0.34</v>
       </c>
-      <c r="J15" s="40"/>
-      <c r="L15" s="42"/>
+      <c r="J15" s="39"/>
+      <c r="L15" s="33"/>
       <c r="M15" s="15" t="s">
         <v>19</v>
       </c>
@@ -1857,13 +1857,13 @@
         <v>0.51</v>
       </c>
       <c r="O15" s="20"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="S15" s="33"/>
-      <c r="T15" s="34"/>
-      <c r="V15" s="42"/>
+      <c r="Q15" s="47"/>
+      <c r="R15" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="S15" s="41"/>
+      <c r="T15" s="42"/>
+      <c r="V15" s="33"/>
       <c r="W15" s="8" t="s">
         <v>11</v>
       </c>
@@ -1873,17 +1873,17 @@
       <c r="Y15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA15" s="42"/>
-      <c r="AB15" s="35"/>
-      <c r="AC15" s="36"/>
-      <c r="AD15" s="37"/>
-      <c r="AF15" s="42"/>
-      <c r="AG15" s="38"/>
-      <c r="AH15" s="39"/>
-      <c r="AI15" s="40"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="43"/>
+      <c r="AC15" s="44"/>
+      <c r="AD15" s="38"/>
+      <c r="AF15" s="33"/>
+      <c r="AG15" s="45"/>
+      <c r="AH15" s="46"/>
+      <c r="AI15" s="39"/>
     </row>
     <row r="16" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B16" s="43"/>
+      <c r="B16" s="34"/>
       <c r="C16" s="9" t="s">
         <v>12</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>15.3362</v>
       </c>
       <c r="F16" s="2"/>
-      <c r="G16" s="42"/>
+      <c r="G16" s="33"/>
       <c r="H16" s="10" t="s">
         <v>75</v>
       </c>
@@ -1904,7 +1904,7 @@
       <c r="J16" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="L16" s="42"/>
+      <c r="L16" s="33"/>
       <c r="M16" s="15" t="s">
         <v>37</v>
       </c>
@@ -1912,11 +1912,11 @@
         <v>0.49</v>
       </c>
       <c r="O16" s="20"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="35"/>
-      <c r="S16" s="36"/>
-      <c r="T16" s="37"/>
-      <c r="V16" s="43"/>
+      <c r="Q16" s="47"/>
+      <c r="R16" s="43"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="38"/>
+      <c r="V16" s="34"/>
       <c r="W16" s="9" t="s">
         <v>12</v>
       </c>
@@ -1926,11 +1926,11 @@
       <c r="Y16" s="5">
         <v>1.9201999999999999</v>
       </c>
-      <c r="AA16" s="42"/>
-      <c r="AB16" s="38"/>
-      <c r="AC16" s="39"/>
-      <c r="AD16" s="40"/>
-      <c r="AF16" s="42"/>
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="45"/>
+      <c r="AC16" s="46"/>
+      <c r="AD16" s="39"/>
+      <c r="AF16" s="33"/>
       <c r="AG16" s="6" t="s">
         <v>77</v>
       </c>
@@ -1942,22 +1942,22 @@
       </c>
     </row>
     <row r="17" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34"/>
+      <c r="C17" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="41"/>
+      <c r="E17" s="42"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="I17" s="33"/>
-      <c r="J17" s="34"/>
-      <c r="L17" s="42"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" s="41"/>
+      <c r="J17" s="42"/>
+      <c r="L17" s="33"/>
       <c r="M17" s="13" t="s">
         <v>20</v>
       </c>
@@ -1965,19 +1965,19 @@
         <v>0.46</v>
       </c>
       <c r="O17" s="20"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="38"/>
-      <c r="S17" s="39"/>
-      <c r="T17" s="40"/>
-      <c r="V17" s="41" t="s">
+      <c r="Q17" s="47"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="46"/>
+      <c r="T17" s="39"/>
+      <c r="V17" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="W17" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="34"/>
-      <c r="AA17" s="42"/>
+      <c r="W17" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="X17" s="41"/>
+      <c r="Y17" s="42"/>
+      <c r="AA17" s="33"/>
       <c r="AB17" s="6" t="s">
         <v>77</v>
       </c>
@@ -1987,7 +1987,7 @@
       <c r="AD17" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AF17" s="42"/>
+      <c r="AF17" s="33"/>
       <c r="AG17" s="8" t="s">
         <v>9</v>
       </c>
@@ -1999,16 +1999,16 @@
       </c>
     </row>
     <row r="18" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B18" s="42"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="38"/>
       <c r="F18" s="19"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="37"/>
-      <c r="L18" s="42"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="38"/>
+      <c r="L18" s="33"/>
       <c r="M18" s="15" t="s">
         <v>38</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>0.44</v>
       </c>
       <c r="O18" s="20"/>
-      <c r="Q18" s="48"/>
+      <c r="Q18" s="47"/>
       <c r="R18" s="31" t="s">
         <v>77</v>
       </c>
@@ -2026,11 +2026,11 @@
       <c r="T18" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="V18" s="42"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="36"/>
-      <c r="Y18" s="37"/>
-      <c r="AA18" s="42"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="43"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="38"/>
+      <c r="AA18" s="33"/>
       <c r="AB18" s="8" t="s">
         <v>9</v>
       </c>
@@ -2040,7 +2040,7 @@
       <c r="AD18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AF18" s="42"/>
+      <c r="AF18" s="33"/>
       <c r="AG18" s="8" t="s">
         <v>10</v>
       </c>
@@ -2052,16 +2052,16 @@
       </c>
     </row>
     <row r="19" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B19" s="42"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="40"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="39"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="37"/>
-      <c r="L19" s="42"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="43"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="38"/>
+      <c r="L19" s="33"/>
       <c r="M19" s="15" t="s">
         <v>39</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>0.41</v>
       </c>
       <c r="O19" s="20"/>
-      <c r="Q19" s="48"/>
+      <c r="Q19" s="47"/>
       <c r="R19" s="8" t="s">
         <v>9</v>
       </c>
@@ -2079,11 +2079,11 @@
       <c r="T19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="V19" s="42"/>
-      <c r="W19" s="38"/>
-      <c r="X19" s="39"/>
-      <c r="Y19" s="40"/>
-      <c r="AA19" s="42"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="45"/>
+      <c r="X19" s="46"/>
+      <c r="Y19" s="39"/>
+      <c r="AA19" s="33"/>
       <c r="AB19" s="8" t="s">
         <v>10</v>
       </c>
@@ -2093,7 +2093,7 @@
       <c r="AD19" s="20">
         <v>0.2482</v>
       </c>
-      <c r="AF19" s="42"/>
+      <c r="AF19" s="33"/>
       <c r="AG19" s="8" t="s">
         <v>11</v>
       </c>
@@ -2105,7 +2105,7 @@
       </c>
     </row>
     <row r="20" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B20" s="42"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="31" t="s">
         <v>77</v>
       </c>
@@ -2116,11 +2116,11 @@
         <v>78</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="40"/>
-      <c r="L20" s="42"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="39"/>
+      <c r="L20" s="33"/>
       <c r="M20" s="15" t="s">
         <v>40</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>0.38</v>
       </c>
       <c r="O20" s="20"/>
-      <c r="Q20" s="48"/>
+      <c r="Q20" s="47"/>
       <c r="R20" s="8" t="s">
         <v>10</v>
       </c>
@@ -2138,7 +2138,7 @@
       <c r="T20" s="3">
         <v>0.998</v>
       </c>
-      <c r="V20" s="42"/>
+      <c r="V20" s="33"/>
       <c r="W20" s="31" t="s">
         <v>77</v>
       </c>
@@ -2148,7 +2148,7 @@
       <c r="Y20" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AA20" s="42"/>
+      <c r="AA20" s="33"/>
       <c r="AB20" s="8" t="s">
         <v>11</v>
       </c>
@@ -2158,7 +2158,7 @@
       <c r="AD20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AF20" s="43"/>
+      <c r="AF20" s="34"/>
       <c r="AG20" s="9" t="s">
         <v>12</v>
       </c>
@@ -2170,7 +2170,7 @@
       </c>
     </row>
     <row r="21" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="42"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="8" t="s">
         <v>9</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>13</v>
       </c>
       <c r="F21" s="2"/>
-      <c r="G21" s="42"/>
+      <c r="G21" s="33"/>
       <c r="H21" s="31" t="s">
         <v>77</v>
       </c>
@@ -2191,7 +2191,7 @@
       <c r="J21" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="L21" s="42"/>
+      <c r="L21" s="33"/>
       <c r="M21" s="13" t="s">
         <v>3</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>0.35</v>
       </c>
       <c r="O21" s="20"/>
-      <c r="Q21" s="48"/>
+      <c r="Q21" s="47"/>
       <c r="R21" s="8" t="s">
         <v>11</v>
       </c>
@@ -2209,7 +2209,7 @@
       <c r="T21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="V21" s="42"/>
+      <c r="V21" s="33"/>
       <c r="W21" s="8" t="s">
         <v>9</v>
       </c>
@@ -2219,7 +2219,7 @@
       <c r="Y21" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AA21" s="43"/>
+      <c r="AA21" s="34"/>
       <c r="AB21" s="9" t="s">
         <v>12</v>
       </c>
@@ -2229,17 +2229,17 @@
       <c r="AD21" s="21">
         <v>19.545000000000002</v>
       </c>
-      <c r="AF21" s="41" t="s">
+      <c r="AF21" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="AG21" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="AH21" s="33"/>
-      <c r="AI21" s="34"/>
+      <c r="AG21" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH21" s="41"/>
+      <c r="AI21" s="42"/>
     </row>
     <row r="22" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="42"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="8" t="s">
         <v>10</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>0.99970000000000003</v>
       </c>
       <c r="F22" s="2"/>
-      <c r="G22" s="42"/>
+      <c r="G22" s="33"/>
       <c r="H22" s="24" t="s">
         <v>9</v>
       </c>
@@ -2260,7 +2260,7 @@
       <c r="J22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="L22" s="42"/>
+      <c r="L22" s="33"/>
       <c r="M22" s="15" t="s">
         <v>41</v>
       </c>
@@ -2268,7 +2268,7 @@
         <v>0.96</v>
       </c>
       <c r="O22" s="20"/>
-      <c r="Q22" s="48"/>
+      <c r="Q22" s="47"/>
       <c r="R22" s="8" t="s">
         <v>12</v>
       </c>
@@ -2278,7 +2278,7 @@
       <c r="T22" s="3">
         <v>1.8342000000000001</v>
       </c>
-      <c r="V22" s="42"/>
+      <c r="V22" s="33"/>
       <c r="W22" s="8" t="s">
         <v>10</v>
       </c>
@@ -2288,21 +2288,21 @@
       <c r="Y22" s="3">
         <v>0.99970000000000003</v>
       </c>
-      <c r="AA22" s="41" t="s">
+      <c r="AA22" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="AB22" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC22" s="33"/>
-      <c r="AD22" s="34"/>
-      <c r="AF22" s="42"/>
-      <c r="AG22" s="35"/>
-      <c r="AH22" s="36"/>
-      <c r="AI22" s="37"/>
+      <c r="AB22" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="AC22" s="41"/>
+      <c r="AD22" s="42"/>
+      <c r="AF22" s="33"/>
+      <c r="AG22" s="43"/>
+      <c r="AH22" s="44"/>
+      <c r="AI22" s="38"/>
     </row>
     <row r="23" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="42"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="8" t="s">
         <v>11</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>14</v>
       </c>
       <c r="F23" s="2"/>
-      <c r="G23" s="42"/>
+      <c r="G23" s="33"/>
       <c r="H23" s="24" t="s">
         <v>10</v>
       </c>
@@ -2323,7 +2323,7 @@
       <c r="J23" s="3">
         <v>0.99809999999999999</v>
       </c>
-      <c r="L23" s="42"/>
+      <c r="L23" s="33"/>
       <c r="M23" s="15" t="s">
         <v>42</v>
       </c>
@@ -2335,7 +2335,7 @@
       <c r="R23" s="28"/>
       <c r="S23" s="28"/>
       <c r="T23" s="28"/>
-      <c r="V23" s="42"/>
+      <c r="V23" s="33"/>
       <c r="W23" s="8" t="s">
         <v>11</v>
       </c>
@@ -2345,17 +2345,17 @@
       <c r="Y23" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AA23" s="42"/>
-      <c r="AB23" s="35"/>
-      <c r="AC23" s="36"/>
-      <c r="AD23" s="37"/>
-      <c r="AF23" s="42"/>
-      <c r="AG23" s="38"/>
-      <c r="AH23" s="39"/>
-      <c r="AI23" s="40"/>
+      <c r="AA23" s="33"/>
+      <c r="AB23" s="43"/>
+      <c r="AC23" s="44"/>
+      <c r="AD23" s="38"/>
+      <c r="AF23" s="33"/>
+      <c r="AG23" s="45"/>
+      <c r="AH23" s="46"/>
+      <c r="AI23" s="39"/>
     </row>
     <row r="24" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="B24" s="43"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="9" t="s">
         <v>12</v>
       </c>
@@ -2365,7 +2365,7 @@
       <c r="E24" s="5">
         <v>1.4601999999999999</v>
       </c>
-      <c r="G24" s="42"/>
+      <c r="G24" s="33"/>
       <c r="H24" s="24" t="s">
         <v>11</v>
       </c>
@@ -2375,7 +2375,7 @@
       <c r="J24" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L24" s="42"/>
+      <c r="L24" s="33"/>
       <c r="M24" s="15" t="s">
         <v>43</v>
       </c>
@@ -2387,7 +2387,7 @@
       <c r="R24" s="29"/>
       <c r="S24" s="29"/>
       <c r="T24" s="29"/>
-      <c r="V24" s="43"/>
+      <c r="V24" s="34"/>
       <c r="W24" s="9" t="s">
         <v>12</v>
       </c>
@@ -2397,11 +2397,11 @@
       <c r="Y24" s="5">
         <v>1.2643</v>
       </c>
-      <c r="AA24" s="42"/>
-      <c r="AB24" s="38"/>
-      <c r="AC24" s="39"/>
-      <c r="AD24" s="40"/>
-      <c r="AF24" s="42"/>
+      <c r="AA24" s="33"/>
+      <c r="AB24" s="45"/>
+      <c r="AC24" s="46"/>
+      <c r="AD24" s="39"/>
+      <c r="AF24" s="33"/>
       <c r="AG24" s="6" t="s">
         <v>77</v>
       </c>
@@ -2413,7 +2413,7 @@
       </c>
     </row>
     <row r="25" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="G25" s="43"/>
+      <c r="G25" s="34"/>
       <c r="H25" s="30" t="s">
         <v>12</v>
       </c>
@@ -2423,7 +2423,7 @@
       <c r="J25" s="5">
         <v>1.9064000000000001</v>
       </c>
-      <c r="L25" s="42"/>
+      <c r="L25" s="33"/>
       <c r="M25" s="15" t="s">
         <v>44</v>
       </c>
@@ -2435,7 +2435,7 @@
       <c r="R25" s="29"/>
       <c r="S25" s="29"/>
       <c r="T25" s="29"/>
-      <c r="AA25" s="42"/>
+      <c r="AA25" s="33"/>
       <c r="AB25" s="31" t="s">
         <v>77</v>
       </c>
@@ -2445,7 +2445,7 @@
       <c r="AD25" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="AF25" s="42"/>
+      <c r="AF25" s="33"/>
       <c r="AG25" s="8" t="s">
         <v>9</v>
       </c>
@@ -2457,7 +2457,7 @@
       </c>
     </row>
     <row r="26" spans="2:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L26" s="42"/>
+      <c r="L26" s="33"/>
       <c r="M26" s="15" t="s">
         <v>45</v>
       </c>
@@ -2469,7 +2469,7 @@
       <c r="R26" s="29"/>
       <c r="S26" s="29"/>
       <c r="T26" s="29"/>
-      <c r="AA26" s="42"/>
+      <c r="AA26" s="33"/>
       <c r="AB26" s="8" t="s">
         <v>9</v>
       </c>
@@ -2479,7 +2479,7 @@
       <c r="AD26" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="AF26" s="42"/>
+      <c r="AF26" s="33"/>
       <c r="AG26" s="8" t="s">
         <v>10</v>
       </c>
@@ -2491,7 +2491,7 @@
       </c>
     </row>
     <row r="27" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="L27" s="42"/>
+      <c r="L27" s="33"/>
       <c r="M27" s="15" t="s">
         <v>46</v>
       </c>
@@ -2503,7 +2503,7 @@
       <c r="R27" s="29"/>
       <c r="S27" s="29"/>
       <c r="T27" s="29"/>
-      <c r="AA27" s="42"/>
+      <c r="AA27" s="33"/>
       <c r="AB27" s="8" t="s">
         <v>10</v>
       </c>
@@ -2513,7 +2513,7 @@
       <c r="AD27" s="3">
         <v>0.99970000000000003</v>
       </c>
-      <c r="AF27" s="42"/>
+      <c r="AF27" s="33"/>
       <c r="AG27" s="8" t="s">
         <v>11</v>
       </c>
@@ -2525,7 +2525,7 @@
       </c>
     </row>
     <row r="28" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="L28" s="42"/>
+      <c r="L28" s="33"/>
       <c r="M28" s="15" t="s">
         <v>47</v>
       </c>
@@ -2537,7 +2537,7 @@
       <c r="R28" s="29"/>
       <c r="S28" s="29"/>
       <c r="T28" s="29"/>
-      <c r="AA28" s="42"/>
+      <c r="AA28" s="33"/>
       <c r="AB28" s="8" t="s">
         <v>11</v>
       </c>
@@ -2547,7 +2547,7 @@
       <c r="AD28" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="AF28" s="43"/>
+      <c r="AF28" s="34"/>
       <c r="AG28" s="9" t="s">
         <v>12</v>
       </c>
@@ -2559,7 +2559,7 @@
       </c>
     </row>
     <row r="29" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="L29" s="42"/>
+      <c r="L29" s="33"/>
       <c r="M29" s="15" t="s">
         <v>22</v>
       </c>
@@ -2571,7 +2571,7 @@
       <c r="R29" s="29"/>
       <c r="S29" s="29"/>
       <c r="T29" s="29"/>
-      <c r="AA29" s="43"/>
+      <c r="AA29" s="34"/>
       <c r="AB29" s="9" t="s">
         <v>12</v>
       </c>
@@ -2583,7 +2583,7 @@
       </c>
     </row>
     <row r="30" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="L30" s="42"/>
+      <c r="L30" s="33"/>
       <c r="M30" s="13" t="s">
         <v>23</v>
       </c>
@@ -2597,7 +2597,7 @@
       <c r="T30" s="29"/>
     </row>
     <row r="31" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="L31" s="42"/>
+      <c r="L31" s="33"/>
       <c r="M31" s="15" t="s">
         <v>5</v>
       </c>
@@ -2607,7 +2607,7 @@
       <c r="O31" s="20"/>
     </row>
     <row r="32" spans="2:35" x14ac:dyDescent="0.25">
-      <c r="L32" s="42"/>
+      <c r="L32" s="33"/>
       <c r="M32" s="16" t="s">
         <v>24</v>
       </c>
@@ -2617,7 +2617,7 @@
       <c r="O32" s="21"/>
     </row>
     <row r="33" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L33" s="42"/>
+      <c r="L33" s="33"/>
       <c r="M33" s="10" t="s">
         <v>75</v>
       </c>
@@ -2629,27 +2629,27 @@
       </c>
     </row>
     <row r="34" spans="12:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L34" s="42"/>
-      <c r="M34" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="N34" s="33"/>
-      <c r="O34" s="34"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="N34" s="41"/>
+      <c r="O34" s="42"/>
     </row>
     <row r="35" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L35" s="42"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="37"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="43"/>
+      <c r="N35" s="44"/>
+      <c r="O35" s="38"/>
     </row>
     <row r="36" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L36" s="42"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="39"/>
-      <c r="O36" s="40"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="45"/>
+      <c r="N36" s="46"/>
+      <c r="O36" s="39"/>
     </row>
     <row r="37" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L37" s="42"/>
+      <c r="L37" s="33"/>
       <c r="M37" s="31" t="s">
         <v>77</v>
       </c>
@@ -2661,7 +2661,7 @@
       </c>
     </row>
     <row r="38" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L38" s="42"/>
+      <c r="L38" s="33"/>
       <c r="M38" s="8" t="s">
         <v>9</v>
       </c>
@@ -2673,7 +2673,7 @@
       </c>
     </row>
     <row r="39" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L39" s="42"/>
+      <c r="L39" s="33"/>
       <c r="M39" s="8" t="s">
         <v>10</v>
       </c>
@@ -2685,7 +2685,7 @@
       </c>
     </row>
     <row r="40" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L40" s="42"/>
+      <c r="L40" s="33"/>
       <c r="M40" s="8" t="s">
         <v>11</v>
       </c>
@@ -2697,7 +2697,7 @@
       </c>
     </row>
     <row r="41" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L41" s="43"/>
+      <c r="L41" s="34"/>
       <c r="M41" s="9" t="s">
         <v>12</v>
       </c>
@@ -2709,29 +2709,29 @@
       </c>
     </row>
     <row r="42" spans="12:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="L42" s="41" t="s">
+      <c r="L42" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="M42" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="N42" s="33"/>
-      <c r="O42" s="34"/>
+      <c r="M42" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="N42" s="41"/>
+      <c r="O42" s="42"/>
     </row>
     <row r="43" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L43" s="42"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="36"/>
-      <c r="O43" s="37"/>
+      <c r="L43" s="33"/>
+      <c r="M43" s="43"/>
+      <c r="N43" s="44"/>
+      <c r="O43" s="38"/>
     </row>
     <row r="44" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L44" s="42"/>
-      <c r="M44" s="38"/>
-      <c r="N44" s="39"/>
-      <c r="O44" s="40"/>
+      <c r="L44" s="33"/>
+      <c r="M44" s="45"/>
+      <c r="N44" s="46"/>
+      <c r="O44" s="39"/>
     </row>
     <row r="45" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L45" s="42"/>
+      <c r="L45" s="33"/>
       <c r="M45" s="31" t="s">
         <v>77</v>
       </c>
@@ -2743,7 +2743,7 @@
       </c>
     </row>
     <row r="46" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L46" s="42"/>
+      <c r="L46" s="33"/>
       <c r="M46" s="8" t="s">
         <v>9</v>
       </c>
@@ -2755,7 +2755,7 @@
       </c>
     </row>
     <row r="47" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L47" s="42"/>
+      <c r="L47" s="33"/>
       <c r="M47" s="8" t="s">
         <v>10</v>
       </c>
@@ -2767,7 +2767,7 @@
       </c>
     </row>
     <row r="48" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L48" s="42"/>
+      <c r="L48" s="33"/>
       <c r="M48" s="8" t="s">
         <v>11</v>
       </c>
@@ -2779,7 +2779,7 @@
       </c>
     </row>
     <row r="49" spans="12:15" x14ac:dyDescent="0.25">
-      <c r="L49" s="43"/>
+      <c r="L49" s="34"/>
       <c r="M49" s="9" t="s">
         <v>12</v>
       </c>
@@ -2792,12 +2792,27 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="AA2:AA21"/>
-    <mergeCell ref="AA22:AA29"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="Y2:Y7"/>
-    <mergeCell ref="W9:Y11"/>
-    <mergeCell ref="W17:Y19"/>
+    <mergeCell ref="AG21:AI23"/>
+    <mergeCell ref="AF21:AF28"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AD2:AD12"/>
+    <mergeCell ref="AB14:AD16"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG13:AI15"/>
+    <mergeCell ref="AB22:AD24"/>
+    <mergeCell ref="AF2:AF20"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="C8:E11"/>
+    <mergeCell ref="C17:E19"/>
+    <mergeCell ref="B17:B24"/>
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="G2:G25"/>
+    <mergeCell ref="L42:L49"/>
+    <mergeCell ref="J2:J15"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H17:J20"/>
+    <mergeCell ref="L2:L41"/>
     <mergeCell ref="V17:V24"/>
     <mergeCell ref="V2:V16"/>
     <mergeCell ref="M1:O1"/>
@@ -2807,27 +2822,12 @@
     <mergeCell ref="R1:T1"/>
     <mergeCell ref="T2:T13"/>
     <mergeCell ref="R15:T17"/>
-    <mergeCell ref="G2:G25"/>
-    <mergeCell ref="L42:L49"/>
-    <mergeCell ref="J2:J15"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="H17:J20"/>
-    <mergeCell ref="L2:L41"/>
-    <mergeCell ref="E3:E6"/>
-    <mergeCell ref="C1:E1"/>
-    <mergeCell ref="C8:E11"/>
-    <mergeCell ref="C17:E19"/>
-    <mergeCell ref="B17:B24"/>
-    <mergeCell ref="B2:B16"/>
-    <mergeCell ref="AG21:AI23"/>
-    <mergeCell ref="AF21:AF28"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AD2:AD12"/>
-    <mergeCell ref="AB14:AD16"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG13:AI15"/>
-    <mergeCell ref="AB22:AD24"/>
-    <mergeCell ref="AF2:AF20"/>
+    <mergeCell ref="AA2:AA21"/>
+    <mergeCell ref="AA22:AA29"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="Y2:Y7"/>
+    <mergeCell ref="W9:Y11"/>
+    <mergeCell ref="W17:Y19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
